--- a/target/test-classes/suites/login.xlsx
+++ b/target/test-classes/suites/login.xlsx
@@ -166,1084 +166,1084 @@
     <t>817555918</t>
   </si>
   <si>
+    <t>🇦🇪 +971 United Arab Emirates</t>
+  </si>
+  <si>
+    <t>505557550</t>
+  </si>
+  <si>
+    <t>505551697</t>
+  </si>
+  <si>
+    <t>585552660</t>
+  </si>
+  <si>
+    <t>505559201</t>
+  </si>
+  <si>
+    <t>countryName</t>
+  </si>
+  <si>
+    <t>stateName</t>
+  </si>
+  <si>
+    <t>cityName</t>
+  </si>
+  <si>
+    <t>Central Java</t>
+  </si>
+  <si>
+    <t>Baki</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>North Sumatra</t>
+  </si>
+  <si>
+    <t>Dairi</t>
+  </si>
+  <si>
+    <t>Batubara</t>
+  </si>
+  <si>
+    <t>Bengkulu</t>
+  </si>
+  <si>
+    <t>Dubai</t>
+  </si>
+  <si>
+    <t>Sharjah Emirate</t>
+  </si>
+  <si>
+    <t>United Arab Emirates</t>
+  </si>
+  <si>
+    <t>Sharjah</t>
+  </si>
+  <si>
+    <t>Abu Dhabi Emirate</t>
+  </si>
+  <si>
+    <t>Abu Dhabi</t>
+  </si>
+  <si>
+    <t>Al Dhafra</t>
+  </si>
+  <si>
+    <t>persona</t>
+  </si>
+  <si>
+    <t>Angler</t>
+  </si>
+  <si>
+    <t>Architect</t>
+  </si>
+  <si>
+    <t>Bird watcher</t>
+  </si>
+  <si>
+    <t>Broadcaster</t>
+  </si>
+  <si>
+    <t>Chartered Environmentalist</t>
+  </si>
+  <si>
+    <t>Chef</t>
+  </si>
+  <si>
+    <t>Conservation Scientist</t>
+  </si>
+  <si>
+    <t>Ecologist</t>
+  </si>
+  <si>
+    <t>Bird Spotting</t>
+  </si>
+  <si>
+    <t>Communication</t>
+  </si>
+  <si>
+    <t>Documentation</t>
+  </si>
+  <si>
+    <t>Field Craft</t>
+  </si>
+  <si>
+    <t>Fish Identification</t>
+  </si>
+  <si>
+    <t>Influencing</t>
+  </si>
+  <si>
+    <t>International Cuisines</t>
+  </si>
+  <si>
+    <t>Leadership</t>
+  </si>
+  <si>
+    <t>interests</t>
+  </si>
+  <si>
+    <t>Aeromicrobiology </t>
+  </si>
+  <si>
+    <t>Anaesthesiology</t>
+  </si>
+  <si>
+    <t>Arboriculture</t>
+  </si>
+  <si>
+    <t>Astrobotany</t>
+  </si>
+  <si>
+    <t>Badgers</t>
+  </si>
+  <si>
+    <t>Barbets</t>
+  </si>
+  <si>
+    <t>Beetles</t>
+  </si>
+  <si>
+    <t>Bettongs</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>United States of America</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>Egypt</t>
+  </si>
+  <si>
+    <t>Damietta Governorate</t>
+  </si>
+  <si>
+    <t>Damietta</t>
+  </si>
+  <si>
+    <t>Sohag Governorate</t>
+  </si>
+  <si>
+    <t>Juhaynah</t>
+  </si>
+  <si>
+    <t>Ptolemais Hermiou</t>
+  </si>
+  <si>
+    <t>England</t>
+  </si>
+  <si>
+    <t>Aldershot</t>
+  </si>
+  <si>
+    <t>Babergh</t>
+  </si>
+  <si>
+    <t>Barnsley</t>
+  </si>
+  <si>
+    <t>Aberdeen</t>
+  </si>
+  <si>
+    <t>Scotland</t>
+  </si>
+  <si>
+    <t>Aberdeenshire</t>
+  </si>
+  <si>
+    <t>Coatbridge</t>
+  </si>
+  <si>
+    <t>Dunfermline</t>
+  </si>
+  <si>
+    <t>Edinburgh</t>
+  </si>
+  <si>
+    <t>Hamilton</t>
+  </si>
+  <si>
+    <t>Inverclyde</t>
+  </si>
+  <si>
+    <t>twentysix</t>
+  </si>
+  <si>
+    <t>twentyseven</t>
+  </si>
+  <si>
+    <t>twentyeight</t>
+  </si>
+  <si>
+    <t>twentynine</t>
+  </si>
+  <si>
+    <t>thirty</t>
+  </si>
+  <si>
+    <t>thirtyone</t>
+  </si>
+  <si>
+    <t>thirtytwo</t>
+  </si>
+  <si>
+    <t>thirtythree</t>
+  </si>
+  <si>
+    <t>thirtyfive</t>
+  </si>
+  <si>
+    <t>thirtyfour</t>
+  </si>
+  <si>
+    <t>thirtysix</t>
+  </si>
+  <si>
+    <t>thirtyseven</t>
+  </si>
+  <si>
+    <t>thirtyeight</t>
+  </si>
+  <si>
+    <t>thirtynine</t>
+  </si>
+  <si>
+    <t>fourty</t>
+  </si>
+  <si>
+    <t>fourtyone</t>
+  </si>
+  <si>
+    <t>fourtytwo</t>
+  </si>
+  <si>
+    <t>fourtythree</t>
+  </si>
+  <si>
+    <t>fourtyfour</t>
+  </si>
+  <si>
+    <t>fourtyfive</t>
+  </si>
+  <si>
+    <t>fourtysix</t>
+  </si>
+  <si>
+    <t>fourtyseven</t>
+  </si>
+  <si>
+    <t>fourtynine</t>
+  </si>
+  <si>
+    <t>fourtyeight</t>
+  </si>
+  <si>
+    <t>fifty</t>
+  </si>
+  <si>
+    <t>🇳🇿 +64 New Zealand</t>
+  </si>
+  <si>
+    <t>🇹🇭 +66 Thailand</t>
+  </si>
+  <si>
+    <t>🇬🇧 +44 United Kingdom</t>
+  </si>
+  <si>
+    <t>🇪🇬 +20 Egypt</t>
+  </si>
+  <si>
+    <t>🇿🇦 +27 South Africa</t>
+  </si>
+  <si>
+    <t>🇺🇸 +1 United States</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>Waikato Region</t>
+  </si>
+  <si>
+    <t>Taranaki Region</t>
+  </si>
+  <si>
+    <t>New Plymouth</t>
+  </si>
+  <si>
+    <t>New Plymouth District</t>
+  </si>
+  <si>
+    <t>Auckland Region</t>
+  </si>
+  <si>
+    <t>Auckland</t>
+  </si>
+  <si>
+    <t>Manukau City</t>
+  </si>
+  <si>
+    <t>Louisiana</t>
+  </si>
+  <si>
+    <t>Acadia Parish</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>Allegany County</t>
+  </si>
+  <si>
+    <t>Babylon</t>
+  </si>
+  <si>
+    <t>Bronx County</t>
+  </si>
+  <si>
+    <t>Montana</t>
+  </si>
+  <si>
+    <t>Billings metropolitan area</t>
+  </si>
+  <si>
+    <t>Gallatin County</t>
+  </si>
+  <si>
+    <t>Wisconsin</t>
+  </si>
+  <si>
+    <t>Appleton</t>
+  </si>
+  <si>
+    <t>Douglas County</t>
+  </si>
+  <si>
+    <t>Fond du Lac County</t>
+  </si>
+  <si>
+    <t>Northern Cape</t>
+  </si>
+  <si>
+    <t>Emthanjeni Local Municipality</t>
+  </si>
+  <si>
+    <t>Kimberley</t>
+  </si>
+  <si>
+    <t>Limpopo</t>
+  </si>
+  <si>
+    <t>Aganang Local Municipality</t>
+  </si>
+  <si>
+    <t>North West</t>
+  </si>
+  <si>
+    <t>Ditsobotla Local Municipality</t>
+  </si>
+  <si>
+    <t>Gauteng</t>
+  </si>
+  <si>
+    <t>Alberton</t>
+  </si>
+  <si>
+    <t>Centurion</t>
+  </si>
+  <si>
+    <t>Eastern Cape</t>
+  </si>
+  <si>
+    <t>Amahlathi Local Municipality</t>
+  </si>
+  <si>
+    <t>Buffalo City</t>
+  </si>
+  <si>
+    <t>Camdeboo Local Municipality</t>
+  </si>
+  <si>
+    <t>uk12@yopmail.com</t>
+  </si>
+  <si>
+    <t>uk16@yopmail.com</t>
+  </si>
+  <si>
+    <t>uk20@yopmail.com</t>
+  </si>
+  <si>
+    <t>uk24@yopmail.com</t>
+  </si>
+  <si>
+    <t>uk28@yopmail.com</t>
+  </si>
+  <si>
+    <t>us13@yopmail.com</t>
+  </si>
+  <si>
+    <t>us17@yopmail.com</t>
+  </si>
+  <si>
+    <t>us21@yopmail.com</t>
+  </si>
+  <si>
+    <t>us25@yopmail.com</t>
+  </si>
+  <si>
+    <t>us29@yopmail.com</t>
+  </si>
+  <si>
+    <t>sa14@yopmail.com</t>
+  </si>
+  <si>
+    <t>sa18@yopmail.com</t>
+  </si>
+  <si>
+    <t>nz19@yopmail.com</t>
+  </si>
+  <si>
+    <t>sa22@yopmail.com</t>
+  </si>
+  <si>
+    <t>nz23@yopmail.com</t>
+  </si>
+  <si>
+    <t>sa26@yopmail.com</t>
+  </si>
+  <si>
+    <t>sa30@yopmail.com</t>
+  </si>
+  <si>
+    <t>eg15@yopmail.com</t>
+  </si>
+  <si>
+    <t>th27@yopmail.com</t>
+  </si>
+  <si>
+    <t>nz31@yopmail.com</t>
+  </si>
+  <si>
+    <t>uk32@yopmail.com</t>
+  </si>
+  <si>
+    <t>us33@yopmail.com</t>
+  </si>
+  <si>
+    <t>sa34@yopmail.com</t>
+  </si>
+  <si>
+    <t>th35@yopmail.com</t>
+  </si>
+  <si>
+    <t>uk36@yopmail.com</t>
+  </si>
+  <si>
+    <t>us37@yopmail.com</t>
+  </si>
+  <si>
+    <t>sa38@yopmail.com</t>
+  </si>
+  <si>
+    <t>eg39@yopmail.com</t>
+  </si>
+  <si>
+    <t>nz40@yopmail.com</t>
+  </si>
+  <si>
+    <t>uk41@yopmail.com</t>
+  </si>
+  <si>
+    <t>us42@yopmail.com</t>
+  </si>
+  <si>
+    <t>sa43@yopmail.com</t>
+  </si>
+  <si>
+    <t>th44@yopmail.com</t>
+  </si>
+  <si>
+    <t>uk45@yopmail.com</t>
+  </si>
+  <si>
+    <t>us46@yopmail.com</t>
+  </si>
+  <si>
+    <t>sa47@yopmail.com</t>
+  </si>
+  <si>
+    <t>eg48@yopmail.com</t>
+  </si>
+  <si>
+    <t>nz49@yopmail.com</t>
+  </si>
+  <si>
+    <t>uk50@yopmail.com</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>Ranong</t>
+  </si>
+  <si>
+    <t>Kra Buri</t>
+  </si>
+  <si>
+    <t>Nakhon Sawan</t>
+  </si>
+  <si>
+    <t>Ban Mi</t>
+  </si>
+  <si>
+    <t>Mueang Lop Buri</t>
+  </si>
+  <si>
+    <t>2025550174</t>
+  </si>
+  <si>
+    <t>2025550976</t>
+  </si>
+  <si>
+    <t>2025550294</t>
+  </si>
+  <si>
+    <t>2025550132</t>
+  </si>
+  <si>
+    <t>2025550083</t>
+  </si>
+  <si>
+    <t>2025550356</t>
+  </si>
+  <si>
+    <t>2025550410</t>
+  </si>
+  <si>
+    <t>2025550934</t>
+  </si>
+  <si>
+    <t>2025550182</t>
+  </si>
+  <si>
+    <t>785557663</t>
+  </si>
+  <si>
+    <t>785553402</t>
+  </si>
+  <si>
+    <t>716555272</t>
+  </si>
+  <si>
+    <t>835550614</t>
+  </si>
+  <si>
+    <t>605551950</t>
+  </si>
+  <si>
+    <t>775553005</t>
+  </si>
+  <si>
+    <t>555805123</t>
+  </si>
+  <si>
+    <t>825556060</t>
+  </si>
+  <si>
+    <t>1055523896</t>
+  </si>
+  <si>
+    <t>1255558054</t>
+  </si>
+  <si>
+    <t>1255595142</t>
+  </si>
+  <si>
+    <t>855573056</t>
+  </si>
+  <si>
+    <t>955534695</t>
+  </si>
+  <si>
+    <t>655595379</t>
+  </si>
+  <si>
+    <t>Hosting</t>
+  </si>
+  <si>
+    <t>Innovation</t>
+  </si>
+  <si>
+    <t>Investigation</t>
+  </si>
+  <si>
+    <t>Itinerary Planning</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>Local Cuisines</t>
+  </si>
+  <si>
+    <t>Management</t>
+  </si>
+  <si>
+    <t>Marketing</t>
+  </si>
+  <si>
+    <t>Mechanics</t>
+  </si>
+  <si>
+    <t>Mountaineering</t>
+  </si>
+  <si>
+    <t>Navigation</t>
+  </si>
+  <si>
+    <t>Networking</t>
+  </si>
+  <si>
+    <t>Operations</t>
+  </si>
+  <si>
+    <t>Oration</t>
+  </si>
+  <si>
+    <t>Photography Editing</t>
+  </si>
+  <si>
+    <t>Relocation</t>
+  </si>
+  <si>
+    <t>Rescue</t>
+  </si>
+  <si>
+    <t>Safety And First Aid</t>
+  </si>
+  <si>
+    <t>Sales</t>
+  </si>
+  <si>
+    <t>Strategy</t>
+  </si>
+  <si>
+    <t>Teaching</t>
+  </si>
+  <si>
+    <t>Technical Writing</t>
+  </si>
+  <si>
+    <t>Technological Application</t>
+  </si>
+  <si>
+    <t>Tracking</t>
+  </si>
+  <si>
+    <t>Forest Driving</t>
+  </si>
+  <si>
+    <t>Experience Creation</t>
+  </si>
+  <si>
+    <t>Guest Relations</t>
+  </si>
+  <si>
+    <t>Impact Analysis</t>
+  </si>
+  <si>
+    <t>Presentation</t>
+  </si>
+  <si>
+    <t>Rehabilitation</t>
+  </si>
+  <si>
+    <t>Cost Efficiency</t>
+  </si>
+  <si>
+    <t>Weather Reading</t>
+  </si>
+  <si>
+    <t>Tranquilizing</t>
+  </si>
+  <si>
+    <t>Translocation</t>
+  </si>
+  <si>
+    <t>Veterinarian</t>
+  </si>
+  <si>
+    <t>Trainer</t>
+  </si>
+  <si>
+    <t>Surveyor</t>
+  </si>
+  <si>
+    <t>Supplier</t>
+  </si>
+  <si>
+    <t>Student</t>
+  </si>
+  <si>
+    <t>Scientist</t>
+  </si>
+  <si>
+    <t>Safari Specialist</t>
+  </si>
+  <si>
+    <t>Safari Operator</t>
+  </si>
+  <si>
+    <t>Wildlife Researcher</t>
+  </si>
+  <si>
+    <t>Wildlife Biologist</t>
+  </si>
+  <si>
+    <t>Wilderness Guide</t>
+  </si>
+  <si>
+    <t>Rescuer</t>
+  </si>
+  <si>
+    <t>Recruiter</t>
+  </si>
+  <si>
+    <t>Publisher</t>
+  </si>
+  <si>
+    <t>Professor</t>
+  </si>
+  <si>
+    <t>Ornithologist</t>
+  </si>
+  <si>
+    <t>Nature Lover</t>
+  </si>
+  <si>
+    <t>Limnologist</t>
+  </si>
+  <si>
+    <t>Lodge</t>
+  </si>
+  <si>
+    <t>Lawyer</t>
+  </si>
+  <si>
+    <t>Hydrologist</t>
+  </si>
+  <si>
+    <t>Hunter</t>
+  </si>
+  <si>
+    <t>Hobbyist</t>
+  </si>
+  <si>
+    <t>Forester</t>
+  </si>
+  <si>
+    <t>Forest Guard</t>
+  </si>
+  <si>
+    <t>Explorer</t>
+  </si>
+  <si>
+    <t>Event Planner</t>
+  </si>
+  <si>
+    <t>Environmentalist</t>
+  </si>
+  <si>
+    <t>Entomologist</t>
+  </si>
+  <si>
+    <t>Educator</t>
+  </si>
+  <si>
+    <t>Landscape Architect</t>
+  </si>
+  <si>
+    <t>Nature Interpreter</t>
+  </si>
+  <si>
+    <t>Ocean Enthusiast</t>
+  </si>
+  <si>
+    <t>Photography Tour Organizer</t>
+  </si>
+  <si>
+    <t>Sustainability Professional</t>
+  </si>
+  <si>
+    <t>Animal Trainer</t>
+  </si>
+  <si>
+    <t>Blogger</t>
+  </si>
+  <si>
+    <t>Iguana</t>
+  </si>
+  <si>
+    <t>Algae</t>
+  </si>
+  <si>
+    <t>Alligators</t>
+  </si>
+  <si>
+    <t>Amphibians</t>
+  </si>
+  <si>
+    <t>Ants</t>
+  </si>
+  <si>
+    <t>Apiology</t>
+  </si>
+  <si>
+    <t>Armadillos</t>
+  </si>
+  <si>
+    <t>Asteraceae</t>
+  </si>
+  <si>
+    <t>Baboons</t>
+  </si>
+  <si>
+    <t>Bacteriology</t>
+  </si>
+  <si>
+    <t>Bandicoots</t>
+  </si>
+  <si>
+    <t>Bats</t>
+  </si>
+  <si>
+    <t>Bee-Eaters</t>
+  </si>
+  <si>
+    <t>Biology</t>
+  </si>
+  <si>
+    <t>Birds</t>
+  </si>
+  <si>
+    <t>Boas</t>
+  </si>
+  <si>
+    <t>Brockets</t>
+  </si>
+  <si>
+    <t>Buffaloes</t>
+  </si>
+  <si>
+    <t>Bushpigs</t>
+  </si>
+  <si>
+    <t>Capes</t>
+  </si>
+  <si>
+    <t>Cattle</t>
+  </si>
+  <si>
+    <t>Cobras</t>
+  </si>
+  <si>
+    <t>Conchology</t>
+  </si>
+  <si>
+    <t>Copywriting</t>
+  </si>
+  <si>
+    <t>Crabs</t>
+  </si>
+  <si>
+    <t>Cytology</t>
+  </si>
+  <si>
+    <t>Deers</t>
+  </si>
+  <si>
+    <t>Doves</t>
+  </si>
+  <si>
+    <t>Dolphins</t>
+  </si>
+  <si>
+    <t>Eagles</t>
+  </si>
+  <si>
+    <t>Ducks</t>
+  </si>
+  <si>
+    <t>Ethology</t>
+  </si>
+  <si>
+    <t>Falcons</t>
+  </si>
+  <si>
+    <t>Ferns</t>
+  </si>
+  <si>
+    <t>Ferrets</t>
+  </si>
+  <si>
+    <t>7955572441</t>
+  </si>
+  <si>
+    <t>7355577267</t>
+  </si>
+  <si>
+    <t>7155571699</t>
+  </si>
+  <si>
+    <t>7555590491</t>
+  </si>
+  <si>
+    <t>7455555813</t>
+  </si>
+  <si>
+    <t>Interpretation</t>
+  </si>
+  <si>
+    <t>78086338</t>
+  </si>
+  <si>
+    <t>78086316</t>
+  </si>
+  <si>
+    <t>78081567</t>
+  </si>
+  <si>
+    <t>78081559</t>
+  </si>
+  <si>
+    <t>78085085</t>
+  </si>
+  <si>
+    <t>7482875123</t>
+  </si>
+  <si>
+    <t>7482873747</t>
+  </si>
+  <si>
+    <t>7482876947</t>
+  </si>
+  <si>
+    <t>7482876439</t>
+  </si>
+  <si>
+    <t>7482875969</t>
+  </si>
+  <si>
+    <t>600702089</t>
+  </si>
+  <si>
+    <t>Sports Medicine</t>
+  </si>
+  <si>
+    <t>Compositae</t>
+  </si>
+  <si>
+    <t>prodhoj7405@yopmail.com</t>
+  </si>
+  <si>
+    <t>6rlguig4903@yopmail.com</t>
+  </si>
+  <si>
+    <t>4qtfoqpm851@yopmail.com</t>
+  </si>
+  <si>
+    <t>ogkejwdc473@yopmail.com</t>
+  </si>
+  <si>
+    <t>yg8oglyt914@yopmail.com</t>
+  </si>
+  <si>
+    <t>cvluifjj980@yopmail.com</t>
+  </si>
+  <si>
+    <t>9qucy7ra316@yopmail.com</t>
+  </si>
+  <si>
+    <t>h88wlwqr211@yopmail.com</t>
+  </si>
+  <si>
+    <t>fiftyOne</t>
+  </si>
+  <si>
+    <t>2025550185</t>
+  </si>
+  <si>
+    <t>us51@yopmail.com</t>
+  </si>
+  <si>
+    <t>fiftyTwo</t>
+  </si>
+  <si>
+    <t>fiftyThree</t>
+  </si>
+  <si>
+    <t>825556061</t>
+  </si>
+  <si>
+    <t>1255595143</t>
+  </si>
+  <si>
+    <t>sa52@yopmail.com</t>
+  </si>
+  <si>
+    <t>eg53@yopmail.com</t>
+  </si>
+  <si>
+    <t>fiftyFour</t>
+  </si>
+  <si>
+    <t>1255595144</t>
+  </si>
+  <si>
+    <t>eg54@yopmail.com</t>
+  </si>
+  <si>
+    <t>fiftyFive</t>
+  </si>
+  <si>
+    <t>655595380</t>
+  </si>
+  <si>
+    <t>th55@yopmail.com</t>
+  </si>
+  <si>
+    <t>skills1</t>
+  </si>
+  <si>
+    <t>fiftySix</t>
+  </si>
+  <si>
+    <t>1255558055</t>
+  </si>
+  <si>
+    <t>eg56@yopmail.com</t>
+  </si>
+  <si>
+    <t>fiftySeven</t>
+  </si>
+  <si>
+    <t>825556062</t>
+  </si>
+  <si>
+    <t>sa57@yopmail.com</t>
+  </si>
+  <si>
     <t>n</t>
-  </si>
-  <si>
-    <t>🇦🇪 +971 United Arab Emirates</t>
-  </si>
-  <si>
-    <t>505557550</t>
-  </si>
-  <si>
-    <t>505551697</t>
-  </si>
-  <si>
-    <t>585552660</t>
-  </si>
-  <si>
-    <t>505559201</t>
-  </si>
-  <si>
-    <t>countryName</t>
-  </si>
-  <si>
-    <t>stateName</t>
-  </si>
-  <si>
-    <t>cityName</t>
-  </si>
-  <si>
-    <t>Central Java</t>
-  </si>
-  <si>
-    <t>Baki</t>
-  </si>
-  <si>
-    <t>Indonesia</t>
-  </si>
-  <si>
-    <t>North Sumatra</t>
-  </si>
-  <si>
-    <t>Dairi</t>
-  </si>
-  <si>
-    <t>Batubara</t>
-  </si>
-  <si>
-    <t>Bengkulu</t>
-  </si>
-  <si>
-    <t>Dubai</t>
-  </si>
-  <si>
-    <t>Sharjah Emirate</t>
-  </si>
-  <si>
-    <t>United Arab Emirates</t>
-  </si>
-  <si>
-    <t>Sharjah</t>
-  </si>
-  <si>
-    <t>Abu Dhabi Emirate</t>
-  </si>
-  <si>
-    <t>Abu Dhabi</t>
-  </si>
-  <si>
-    <t>Al Dhafra</t>
-  </si>
-  <si>
-    <t>persona</t>
-  </si>
-  <si>
-    <t>Angler</t>
-  </si>
-  <si>
-    <t>Architect</t>
-  </si>
-  <si>
-    <t>Bird watcher</t>
-  </si>
-  <si>
-    <t>Broadcaster</t>
-  </si>
-  <si>
-    <t>Chartered Environmentalist</t>
-  </si>
-  <si>
-    <t>Chef</t>
-  </si>
-  <si>
-    <t>Conservation Scientist</t>
-  </si>
-  <si>
-    <t>Ecologist</t>
-  </si>
-  <si>
-    <t>Bird Spotting</t>
-  </si>
-  <si>
-    <t>Communication</t>
-  </si>
-  <si>
-    <t>Documentation</t>
-  </si>
-  <si>
-    <t>Field Craft</t>
-  </si>
-  <si>
-    <t>Fish Identification</t>
-  </si>
-  <si>
-    <t>Influencing</t>
-  </si>
-  <si>
-    <t>International Cuisines</t>
-  </si>
-  <si>
-    <t>Leadership</t>
-  </si>
-  <si>
-    <t>interests</t>
-  </si>
-  <si>
-    <t>Aeromicrobiology </t>
-  </si>
-  <si>
-    <t>Anaesthesiology</t>
-  </si>
-  <si>
-    <t>Arboriculture</t>
-  </si>
-  <si>
-    <t>Astrobotany</t>
-  </si>
-  <si>
-    <t>Badgers</t>
-  </si>
-  <si>
-    <t>Barbets</t>
-  </si>
-  <si>
-    <t>Beetles</t>
-  </si>
-  <si>
-    <t>Bettongs</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>United Kingdom</t>
-  </si>
-  <si>
-    <t>United States of America</t>
-  </si>
-  <si>
-    <t>South Africa</t>
-  </si>
-  <si>
-    <t>Egypt</t>
-  </si>
-  <si>
-    <t>Damietta Governorate</t>
-  </si>
-  <si>
-    <t>Damietta</t>
-  </si>
-  <si>
-    <t>Sohag Governorate</t>
-  </si>
-  <si>
-    <t>Juhaynah</t>
-  </si>
-  <si>
-    <t>Ptolemais Hermiou</t>
-  </si>
-  <si>
-    <t>England</t>
-  </si>
-  <si>
-    <t>Aldershot</t>
-  </si>
-  <si>
-    <t>Babergh</t>
-  </si>
-  <si>
-    <t>Barnsley</t>
-  </si>
-  <si>
-    <t>Aberdeen</t>
-  </si>
-  <si>
-    <t>Scotland</t>
-  </si>
-  <si>
-    <t>Aberdeenshire</t>
-  </si>
-  <si>
-    <t>Coatbridge</t>
-  </si>
-  <si>
-    <t>Dunfermline</t>
-  </si>
-  <si>
-    <t>Edinburgh</t>
-  </si>
-  <si>
-    <t>Hamilton</t>
-  </si>
-  <si>
-    <t>Inverclyde</t>
-  </si>
-  <si>
-    <t>twentysix</t>
-  </si>
-  <si>
-    <t>twentyseven</t>
-  </si>
-  <si>
-    <t>twentyeight</t>
-  </si>
-  <si>
-    <t>twentynine</t>
-  </si>
-  <si>
-    <t>thirty</t>
-  </si>
-  <si>
-    <t>thirtyone</t>
-  </si>
-  <si>
-    <t>thirtytwo</t>
-  </si>
-  <si>
-    <t>thirtythree</t>
-  </si>
-  <si>
-    <t>thirtyfive</t>
-  </si>
-  <si>
-    <t>thirtyfour</t>
-  </si>
-  <si>
-    <t>thirtysix</t>
-  </si>
-  <si>
-    <t>thirtyseven</t>
-  </si>
-  <si>
-    <t>thirtyeight</t>
-  </si>
-  <si>
-    <t>thirtynine</t>
-  </si>
-  <si>
-    <t>fourty</t>
-  </si>
-  <si>
-    <t>fourtyone</t>
-  </si>
-  <si>
-    <t>fourtytwo</t>
-  </si>
-  <si>
-    <t>fourtythree</t>
-  </si>
-  <si>
-    <t>fourtyfour</t>
-  </si>
-  <si>
-    <t>fourtyfive</t>
-  </si>
-  <si>
-    <t>fourtysix</t>
-  </si>
-  <si>
-    <t>fourtyseven</t>
-  </si>
-  <si>
-    <t>fourtynine</t>
-  </si>
-  <si>
-    <t>fourtyeight</t>
-  </si>
-  <si>
-    <t>fifty</t>
-  </si>
-  <si>
-    <t>🇳🇿 +64 New Zealand</t>
-  </si>
-  <si>
-    <t>🇹🇭 +66 Thailand</t>
-  </si>
-  <si>
-    <t>🇬🇧 +44 United Kingdom</t>
-  </si>
-  <si>
-    <t>🇪🇬 +20 Egypt</t>
-  </si>
-  <si>
-    <t>🇿🇦 +27 South Africa</t>
-  </si>
-  <si>
-    <t>🇺🇸 +1 United States</t>
-  </si>
-  <si>
-    <t>New Zealand</t>
-  </si>
-  <si>
-    <t>Waikato Region</t>
-  </si>
-  <si>
-    <t>Taranaki Region</t>
-  </si>
-  <si>
-    <t>New Plymouth</t>
-  </si>
-  <si>
-    <t>New Plymouth District</t>
-  </si>
-  <si>
-    <t>Auckland Region</t>
-  </si>
-  <si>
-    <t>Auckland</t>
-  </si>
-  <si>
-    <t>Manukau City</t>
-  </si>
-  <si>
-    <t>Louisiana</t>
-  </si>
-  <si>
-    <t>Acadia Parish</t>
-  </si>
-  <si>
-    <t>New York</t>
-  </si>
-  <si>
-    <t>Allegany County</t>
-  </si>
-  <si>
-    <t>Babylon</t>
-  </si>
-  <si>
-    <t>Bronx County</t>
-  </si>
-  <si>
-    <t>Montana</t>
-  </si>
-  <si>
-    <t>Billings metropolitan area</t>
-  </si>
-  <si>
-    <t>Gallatin County</t>
-  </si>
-  <si>
-    <t>Wisconsin</t>
-  </si>
-  <si>
-    <t>Appleton</t>
-  </si>
-  <si>
-    <t>Douglas County</t>
-  </si>
-  <si>
-    <t>Fond du Lac County</t>
-  </si>
-  <si>
-    <t>Northern Cape</t>
-  </si>
-  <si>
-    <t>Emthanjeni Local Municipality</t>
-  </si>
-  <si>
-    <t>Kimberley</t>
-  </si>
-  <si>
-    <t>Limpopo</t>
-  </si>
-  <si>
-    <t>Aganang Local Municipality</t>
-  </si>
-  <si>
-    <t>North West</t>
-  </si>
-  <si>
-    <t>Ditsobotla Local Municipality</t>
-  </si>
-  <si>
-    <t>Gauteng</t>
-  </si>
-  <si>
-    <t>Alberton</t>
-  </si>
-  <si>
-    <t>Centurion</t>
-  </si>
-  <si>
-    <t>Eastern Cape</t>
-  </si>
-  <si>
-    <t>Amahlathi Local Municipality</t>
-  </si>
-  <si>
-    <t>Buffalo City</t>
-  </si>
-  <si>
-    <t>Camdeboo Local Municipality</t>
-  </si>
-  <si>
-    <t>uk12@yopmail.com</t>
-  </si>
-  <si>
-    <t>uk16@yopmail.com</t>
-  </si>
-  <si>
-    <t>uk20@yopmail.com</t>
-  </si>
-  <si>
-    <t>uk24@yopmail.com</t>
-  </si>
-  <si>
-    <t>uk28@yopmail.com</t>
-  </si>
-  <si>
-    <t>us13@yopmail.com</t>
-  </si>
-  <si>
-    <t>us17@yopmail.com</t>
-  </si>
-  <si>
-    <t>us21@yopmail.com</t>
-  </si>
-  <si>
-    <t>us25@yopmail.com</t>
-  </si>
-  <si>
-    <t>us29@yopmail.com</t>
-  </si>
-  <si>
-    <t>sa14@yopmail.com</t>
-  </si>
-  <si>
-    <t>sa18@yopmail.com</t>
-  </si>
-  <si>
-    <t>nz19@yopmail.com</t>
-  </si>
-  <si>
-    <t>sa22@yopmail.com</t>
-  </si>
-  <si>
-    <t>nz23@yopmail.com</t>
-  </si>
-  <si>
-    <t>sa26@yopmail.com</t>
-  </si>
-  <si>
-    <t>sa30@yopmail.com</t>
-  </si>
-  <si>
-    <t>eg15@yopmail.com</t>
-  </si>
-  <si>
-    <t>th27@yopmail.com</t>
-  </si>
-  <si>
-    <t>nz31@yopmail.com</t>
-  </si>
-  <si>
-    <t>uk32@yopmail.com</t>
-  </si>
-  <si>
-    <t>us33@yopmail.com</t>
-  </si>
-  <si>
-    <t>sa34@yopmail.com</t>
-  </si>
-  <si>
-    <t>th35@yopmail.com</t>
-  </si>
-  <si>
-    <t>uk36@yopmail.com</t>
-  </si>
-  <si>
-    <t>us37@yopmail.com</t>
-  </si>
-  <si>
-    <t>sa38@yopmail.com</t>
-  </si>
-  <si>
-    <t>eg39@yopmail.com</t>
-  </si>
-  <si>
-    <t>nz40@yopmail.com</t>
-  </si>
-  <si>
-    <t>uk41@yopmail.com</t>
-  </si>
-  <si>
-    <t>us42@yopmail.com</t>
-  </si>
-  <si>
-    <t>sa43@yopmail.com</t>
-  </si>
-  <si>
-    <t>th44@yopmail.com</t>
-  </si>
-  <si>
-    <t>uk45@yopmail.com</t>
-  </si>
-  <si>
-    <t>us46@yopmail.com</t>
-  </si>
-  <si>
-    <t>sa47@yopmail.com</t>
-  </si>
-  <si>
-    <t>eg48@yopmail.com</t>
-  </si>
-  <si>
-    <t>nz49@yopmail.com</t>
-  </si>
-  <si>
-    <t>uk50@yopmail.com</t>
-  </si>
-  <si>
-    <t>Thailand</t>
-  </si>
-  <si>
-    <t>Ranong</t>
-  </si>
-  <si>
-    <t>Kra Buri</t>
-  </si>
-  <si>
-    <t>Nakhon Sawan</t>
-  </si>
-  <si>
-    <t>Ban Mi</t>
-  </si>
-  <si>
-    <t>Mueang Lop Buri</t>
-  </si>
-  <si>
-    <t>2025550174</t>
-  </si>
-  <si>
-    <t>2025550976</t>
-  </si>
-  <si>
-    <t>2025550294</t>
-  </si>
-  <si>
-    <t>2025550132</t>
-  </si>
-  <si>
-    <t>2025550083</t>
-  </si>
-  <si>
-    <t>2025550356</t>
-  </si>
-  <si>
-    <t>2025550410</t>
-  </si>
-  <si>
-    <t>2025550934</t>
-  </si>
-  <si>
-    <t>2025550182</t>
-  </si>
-  <si>
-    <t>785557663</t>
-  </si>
-  <si>
-    <t>785553402</t>
-  </si>
-  <si>
-    <t>716555272</t>
-  </si>
-  <si>
-    <t>835550614</t>
-  </si>
-  <si>
-    <t>605551950</t>
-  </si>
-  <si>
-    <t>775553005</t>
-  </si>
-  <si>
-    <t>555805123</t>
-  </si>
-  <si>
-    <t>825556060</t>
-  </si>
-  <si>
-    <t>1055523896</t>
-  </si>
-  <si>
-    <t>1255558054</t>
-  </si>
-  <si>
-    <t>1255595142</t>
-  </si>
-  <si>
-    <t>855573056</t>
-  </si>
-  <si>
-    <t>955534695</t>
-  </si>
-  <si>
-    <t>655595379</t>
-  </si>
-  <si>
-    <t>Hosting</t>
-  </si>
-  <si>
-    <t>Innovation</t>
-  </si>
-  <si>
-    <t>Investigation</t>
-  </si>
-  <si>
-    <t>Itinerary Planning</t>
-  </si>
-  <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <t>Local Cuisines</t>
-  </si>
-  <si>
-    <t>Management</t>
-  </si>
-  <si>
-    <t>Marketing</t>
-  </si>
-  <si>
-    <t>Mechanics</t>
-  </si>
-  <si>
-    <t>Mountaineering</t>
-  </si>
-  <si>
-    <t>Navigation</t>
-  </si>
-  <si>
-    <t>Networking</t>
-  </si>
-  <si>
-    <t>Operations</t>
-  </si>
-  <si>
-    <t>Oration</t>
-  </si>
-  <si>
-    <t>Photography Editing</t>
-  </si>
-  <si>
-    <t>Relocation</t>
-  </si>
-  <si>
-    <t>Rescue</t>
-  </si>
-  <si>
-    <t>Safety And First Aid</t>
-  </si>
-  <si>
-    <t>Sales</t>
-  </si>
-  <si>
-    <t>Strategy</t>
-  </si>
-  <si>
-    <t>Teaching</t>
-  </si>
-  <si>
-    <t>Technical Writing</t>
-  </si>
-  <si>
-    <t>Technological Application</t>
-  </si>
-  <si>
-    <t>Tracking</t>
-  </si>
-  <si>
-    <t>Forest Driving</t>
-  </si>
-  <si>
-    <t>Experience Creation</t>
-  </si>
-  <si>
-    <t>Guest Relations</t>
-  </si>
-  <si>
-    <t>Impact Analysis</t>
-  </si>
-  <si>
-    <t>Presentation</t>
-  </si>
-  <si>
-    <t>Rehabilitation</t>
-  </si>
-  <si>
-    <t>Cost Efficiency</t>
-  </si>
-  <si>
-    <t>Weather Reading</t>
-  </si>
-  <si>
-    <t>Tranquilizing</t>
-  </si>
-  <si>
-    <t>Translocation</t>
-  </si>
-  <si>
-    <t>Veterinarian</t>
-  </si>
-  <si>
-    <t>Trainer</t>
-  </si>
-  <si>
-    <t>Surveyor</t>
-  </si>
-  <si>
-    <t>Supplier</t>
-  </si>
-  <si>
-    <t>Student</t>
-  </si>
-  <si>
-    <t>Scientist</t>
-  </si>
-  <si>
-    <t>Safari Specialist</t>
-  </si>
-  <si>
-    <t>Safari Operator</t>
-  </si>
-  <si>
-    <t>Wildlife Researcher</t>
-  </si>
-  <si>
-    <t>Wildlife Biologist</t>
-  </si>
-  <si>
-    <t>Wilderness Guide</t>
-  </si>
-  <si>
-    <t>Rescuer</t>
-  </si>
-  <si>
-    <t>Recruiter</t>
-  </si>
-  <si>
-    <t>Publisher</t>
-  </si>
-  <si>
-    <t>Professor</t>
-  </si>
-  <si>
-    <t>Ornithologist</t>
-  </si>
-  <si>
-    <t>Nature Lover</t>
-  </si>
-  <si>
-    <t>Limnologist</t>
-  </si>
-  <si>
-    <t>Lodge</t>
-  </si>
-  <si>
-    <t>Lawyer</t>
-  </si>
-  <si>
-    <t>Hydrologist</t>
-  </si>
-  <si>
-    <t>Hunter</t>
-  </si>
-  <si>
-    <t>Hobbyist</t>
-  </si>
-  <si>
-    <t>Forester</t>
-  </si>
-  <si>
-    <t>Forest Guard</t>
-  </si>
-  <si>
-    <t>Explorer</t>
-  </si>
-  <si>
-    <t>Event Planner</t>
-  </si>
-  <si>
-    <t>Environmentalist</t>
-  </si>
-  <si>
-    <t>Entomologist</t>
-  </si>
-  <si>
-    <t>Educator</t>
-  </si>
-  <si>
-    <t>Landscape Architect</t>
-  </si>
-  <si>
-    <t>Nature Interpreter</t>
-  </si>
-  <si>
-    <t>Ocean Enthusiast</t>
-  </si>
-  <si>
-    <t>Photography Tour Organizer</t>
-  </si>
-  <si>
-    <t>Sustainability Professional</t>
-  </si>
-  <si>
-    <t>Animal Trainer</t>
-  </si>
-  <si>
-    <t>Blogger</t>
-  </si>
-  <si>
-    <t>Iguana</t>
-  </si>
-  <si>
-    <t>Algae</t>
-  </si>
-  <si>
-    <t>Alligators</t>
-  </si>
-  <si>
-    <t>Amphibians</t>
-  </si>
-  <si>
-    <t>Ants</t>
-  </si>
-  <si>
-    <t>Apiology</t>
-  </si>
-  <si>
-    <t>Armadillos</t>
-  </si>
-  <si>
-    <t>Asteraceae</t>
-  </si>
-  <si>
-    <t>Baboons</t>
-  </si>
-  <si>
-    <t>Bacteriology</t>
-  </si>
-  <si>
-    <t>Bandicoots</t>
-  </si>
-  <si>
-    <t>Bats</t>
-  </si>
-  <si>
-    <t>Bee-Eaters</t>
-  </si>
-  <si>
-    <t>Biology</t>
-  </si>
-  <si>
-    <t>Birds</t>
-  </si>
-  <si>
-    <t>Boas</t>
-  </si>
-  <si>
-    <t>Brockets</t>
-  </si>
-  <si>
-    <t>Buffaloes</t>
-  </si>
-  <si>
-    <t>Bushpigs</t>
-  </si>
-  <si>
-    <t>Capes</t>
-  </si>
-  <si>
-    <t>Cattle</t>
-  </si>
-  <si>
-    <t>Cobras</t>
-  </si>
-  <si>
-    <t>Conchology</t>
-  </si>
-  <si>
-    <t>Copywriting</t>
-  </si>
-  <si>
-    <t>Crabs</t>
-  </si>
-  <si>
-    <t>Cytology</t>
-  </si>
-  <si>
-    <t>Deers</t>
-  </si>
-  <si>
-    <t>Doves</t>
-  </si>
-  <si>
-    <t>Dolphins</t>
-  </si>
-  <si>
-    <t>Eagles</t>
-  </si>
-  <si>
-    <t>Ducks</t>
-  </si>
-  <si>
-    <t>Ethology</t>
-  </si>
-  <si>
-    <t>Falcons</t>
-  </si>
-  <si>
-    <t>Ferns</t>
-  </si>
-  <si>
-    <t>Ferrets</t>
-  </si>
-  <si>
-    <t>7955572441</t>
-  </si>
-  <si>
-    <t>7355577267</t>
-  </si>
-  <si>
-    <t>7155571699</t>
-  </si>
-  <si>
-    <t>7555590491</t>
-  </si>
-  <si>
-    <t>7455555813</t>
-  </si>
-  <si>
-    <t>Interpretation</t>
-  </si>
-  <si>
-    <t>78086338</t>
-  </si>
-  <si>
-    <t>78086316</t>
-  </si>
-  <si>
-    <t>78081567</t>
-  </si>
-  <si>
-    <t>78081559</t>
-  </si>
-  <si>
-    <t>78085085</t>
-  </si>
-  <si>
-    <t>7482875123</t>
-  </si>
-  <si>
-    <t>7482873747</t>
-  </si>
-  <si>
-    <t>7482876947</t>
-  </si>
-  <si>
-    <t>7482876439</t>
-  </si>
-  <si>
-    <t>7482875969</t>
-  </si>
-  <si>
-    <t>600702089</t>
-  </si>
-  <si>
-    <t>Sports Medicine</t>
-  </si>
-  <si>
-    <t>Compositae</t>
-  </si>
-  <si>
-    <t>prodhoj7405@yopmail.com</t>
-  </si>
-  <si>
-    <t>6rlguig4903@yopmail.com</t>
-  </si>
-  <si>
-    <t>4qtfoqpm851@yopmail.com</t>
-  </si>
-  <si>
-    <t>ogkejwdc473@yopmail.com</t>
-  </si>
-  <si>
-    <t>yg8oglyt914@yopmail.com</t>
-  </si>
-  <si>
-    <t>cvluifjj980@yopmail.com</t>
-  </si>
-  <si>
-    <t>9qucy7ra316@yopmail.com</t>
-  </si>
-  <si>
-    <t>h88wlwqr211@yopmail.com</t>
-  </si>
-  <si>
-    <t>fiftyOne</t>
-  </si>
-  <si>
-    <t>2025550185</t>
-  </si>
-  <si>
-    <t>us51@yopmail.com</t>
-  </si>
-  <si>
-    <t>fiftyTwo</t>
-  </si>
-  <si>
-    <t>fiftyThree</t>
-  </si>
-  <si>
-    <t>825556061</t>
-  </si>
-  <si>
-    <t>1255595143</t>
-  </si>
-  <si>
-    <t>sa52@yopmail.com</t>
-  </si>
-  <si>
-    <t>eg53@yopmail.com</t>
-  </si>
-  <si>
-    <t>fiftyFour</t>
-  </si>
-  <si>
-    <t>1255595144</t>
-  </si>
-  <si>
-    <t>eg54@yopmail.com</t>
-  </si>
-  <si>
-    <t>fiftyFive</t>
-  </si>
-  <si>
-    <t>655595380</t>
-  </si>
-  <si>
-    <t>th55@yopmail.com</t>
-  </si>
-  <si>
-    <t>skills1</t>
-  </si>
-  <si>
-    <t>fiftySix</t>
-  </si>
-  <si>
-    <t>1255558055</t>
-  </si>
-  <si>
-    <t>eg56@yopmail.com</t>
-  </si>
-  <si>
-    <t>fiftySeven</t>
-  </si>
-  <si>
-    <t>825556062</t>
-  </si>
-  <si>
-    <t>sa57@yopmail.com</t>
   </si>
 </sst>
 </file>
@@ -1693,8 +1693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F31" workbookViewId="0">
-      <selection activeCell="L58" sqref="L58:N58"/>
+    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1734,28 +1734,28 @@
         <v>19</v>
       </c>
       <c r="G1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H1" t="s">
         <v>9</v>
       </c>
       <c r="I1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J1" t="s">
         <v>55</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>56</v>
       </c>
-      <c r="K1" t="s">
-        <v>57</v>
-      </c>
       <c r="L1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="N1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -1763,7 +1763,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>408</v>
       </c>
       <c r="C2" t="s">
         <v>46</v>
@@ -1778,28 +1778,28 @@
         <v>17</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H2" t="s">
         <v>10</v>
       </c>
       <c r="I2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K2" t="s">
         <v>58</v>
       </c>
-      <c r="K2" t="s">
-        <v>59</v>
-      </c>
       <c r="L2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
@@ -1807,7 +1807,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>408</v>
       </c>
       <c r="C3" t="s">
         <v>22</v>
@@ -1822,28 +1822,28 @@
         <v>21</v>
       </c>
       <c r="G3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H3" t="s">
         <v>10</v>
       </c>
       <c r="I3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
@@ -1851,7 +1851,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>408</v>
       </c>
       <c r="C4" t="s">
         <v>23</v>
@@ -1860,34 +1860,34 @@
         <v>16</v>
       </c>
       <c r="E4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="G4" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H4" t="s">
         <v>10</v>
       </c>
       <c r="I4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
@@ -1895,7 +1895,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>408</v>
       </c>
       <c r="C5" t="s">
         <v>24</v>
@@ -1904,34 +1904,34 @@
         <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H5" t="s">
         <v>10</v>
       </c>
       <c r="I5" t="s">
+        <v>66</v>
+      </c>
+      <c r="J5" t="s">
+        <v>65</v>
+      </c>
+      <c r="K5" t="s">
         <v>67</v>
       </c>
-      <c r="J5" t="s">
-        <v>66</v>
-      </c>
-      <c r="K5" t="s">
-        <v>68</v>
-      </c>
       <c r="L5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
@@ -1939,7 +1939,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>408</v>
       </c>
       <c r="C6" t="s">
         <v>25</v>
@@ -1954,28 +1954,28 @@
         <v>47</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H6" t="s">
         <v>10</v>
       </c>
       <c r="I6" t="s">
+        <v>59</v>
+      </c>
+      <c r="J6" t="s">
         <v>60</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>61</v>
       </c>
-      <c r="K6" t="s">
-        <v>62</v>
-      </c>
       <c r="L6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
@@ -1983,7 +1983,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>408</v>
       </c>
       <c r="C7" t="s">
         <v>26</v>
@@ -1998,28 +1998,28 @@
         <v>48</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H7" t="s">
         <v>10</v>
       </c>
       <c r="I7" t="s">
+        <v>59</v>
+      </c>
+      <c r="J7" t="s">
         <v>60</v>
       </c>
-      <c r="J7" t="s">
-        <v>61</v>
-      </c>
       <c r="K7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
@@ -2027,7 +2027,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>408</v>
       </c>
       <c r="C8" t="s">
         <v>27</v>
@@ -2041,7 +2041,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>408</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -2055,7 +2055,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>408</v>
       </c>
       <c r="C10" t="s">
         <v>29</v>
@@ -2064,34 +2064,34 @@
         <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H10" t="s">
         <v>10</v>
       </c>
       <c r="I10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J10" t="s">
+        <v>68</v>
+      </c>
+      <c r="K10" t="s">
         <v>69</v>
       </c>
-      <c r="K10" t="s">
-        <v>70</v>
-      </c>
       <c r="L10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
@@ -2099,7 +2099,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>408</v>
       </c>
       <c r="C11" t="s">
         <v>30</v>
@@ -2113,7 +2113,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>408</v>
       </c>
       <c r="C12" t="s">
         <v>31</v>
@@ -2122,34 +2122,34 @@
         <v>16</v>
       </c>
       <c r="E12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H12" t="s">
         <v>10</v>
       </c>
       <c r="I12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
@@ -2157,7 +2157,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>408</v>
       </c>
       <c r="C13" t="s">
         <v>32</v>
@@ -2166,34 +2166,34 @@
         <v>16</v>
       </c>
       <c r="E13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H13" t="s">
         <v>10</v>
       </c>
       <c r="I13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L13" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="M13" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="N13" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
@@ -2201,7 +2201,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
+        <v>408</v>
       </c>
       <c r="C14" t="s">
         <v>33</v>
@@ -2210,34 +2210,34 @@
         <v>16</v>
       </c>
       <c r="E14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H14" t="s">
         <v>10</v>
       </c>
       <c r="I14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J14" t="s">
+        <v>158</v>
+      </c>
+      <c r="K14" t="s">
         <v>159</v>
       </c>
-      <c r="K14" t="s">
-        <v>160</v>
-      </c>
       <c r="L14" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="M14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N14" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
@@ -2245,7 +2245,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>408</v>
       </c>
       <c r="C15" t="s">
         <v>34</v>
@@ -2254,34 +2254,34 @@
         <v>16</v>
       </c>
       <c r="E15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H15" t="s">
         <v>10</v>
       </c>
       <c r="I15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J15" t="s">
+        <v>181</v>
+      </c>
+      <c r="K15" t="s">
         <v>182</v>
       </c>
-      <c r="K15" t="s">
-        <v>183</v>
-      </c>
       <c r="L15" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="M15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N15" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
@@ -2289,7 +2289,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>408</v>
       </c>
       <c r="C16" t="s">
         <v>35</v>
@@ -2298,34 +2298,34 @@
         <v>16</v>
       </c>
       <c r="E16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G16" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H16" t="s">
         <v>10</v>
       </c>
       <c r="I16" t="s">
+        <v>101</v>
+      </c>
+      <c r="J16" t="s">
         <v>102</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>103</v>
       </c>
-      <c r="K16" t="s">
-        <v>104</v>
-      </c>
       <c r="L16" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="M16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N16" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
@@ -2333,7 +2333,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>408</v>
       </c>
       <c r="C17" t="s">
         <v>36</v>
@@ -2342,34 +2342,34 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H17" t="s">
         <v>10</v>
       </c>
       <c r="I17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J17" t="s">
+        <v>112</v>
+      </c>
+      <c r="K17" t="s">
         <v>113</v>
       </c>
-      <c r="K17" t="s">
-        <v>114</v>
-      </c>
       <c r="L17" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="M17" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="N17" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
@@ -2377,7 +2377,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>408</v>
       </c>
       <c r="C18" t="s">
         <v>37</v>
@@ -2386,34 +2386,34 @@
         <v>16</v>
       </c>
       <c r="E18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H18" t="s">
         <v>10</v>
       </c>
       <c r="I18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J18" t="s">
+        <v>160</v>
+      </c>
+      <c r="K18" t="s">
         <v>161</v>
       </c>
-      <c r="K18" t="s">
-        <v>162</v>
-      </c>
       <c r="L18" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="M18" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="N18" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
@@ -2421,7 +2421,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>49</v>
+        <v>408</v>
       </c>
       <c r="C19" t="s">
         <v>38</v>
@@ -2430,42 +2430,42 @@
         <v>16</v>
       </c>
       <c r="E19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G19" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H19" t="s">
         <v>10</v>
       </c>
       <c r="I19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J19" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K19" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L19" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="M19" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="N19" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="20" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>19</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>49</v>
+      <c r="B20" t="s">
+        <v>408</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>39</v>
@@ -2474,34 +2474,34 @@
         <v>16</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J20" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="K20" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="K20" s="5" t="s">
-        <v>154</v>
-      </c>
       <c r="L20" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="N20" s="5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
@@ -2509,7 +2509,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>49</v>
+        <v>408</v>
       </c>
       <c r="C21" t="s">
         <v>40</v>
@@ -2518,34 +2518,34 @@
         <v>16</v>
       </c>
       <c r="E21" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G21" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H21" t="s">
         <v>10</v>
       </c>
       <c r="I21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N21" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
@@ -2553,7 +2553,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>49</v>
+        <v>408</v>
       </c>
       <c r="C22" t="s">
         <v>41</v>
@@ -2562,34 +2562,34 @@
         <v>16</v>
       </c>
       <c r="E22" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G22" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H22" t="s">
         <v>10</v>
       </c>
       <c r="I22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K22" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L22" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M22" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="N22" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
@@ -2597,7 +2597,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>49</v>
+        <v>408</v>
       </c>
       <c r="C23" t="s">
         <v>42</v>
@@ -2606,34 +2606,34 @@
         <v>16</v>
       </c>
       <c r="E23" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G23" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H23" t="s">
         <v>10</v>
       </c>
       <c r="I23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K23" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L23" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="M23" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="N23" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
@@ -2641,7 +2641,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>49</v>
+        <v>408</v>
       </c>
       <c r="C24" t="s">
         <v>43</v>
@@ -2650,34 +2650,34 @@
         <v>16</v>
       </c>
       <c r="E24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G24" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H24" t="s">
         <v>10</v>
       </c>
       <c r="I24" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J24" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K24" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L24" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="M24" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="N24" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
@@ -2685,7 +2685,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>49</v>
+        <v>408</v>
       </c>
       <c r="C25" t="s">
         <v>44</v>
@@ -2694,34 +2694,34 @@
         <v>16</v>
       </c>
       <c r="E25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H25" t="s">
         <v>10</v>
       </c>
       <c r="I25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K25" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L25" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="M25" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="N25" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
@@ -2729,7 +2729,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>49</v>
+        <v>408</v>
       </c>
       <c r="C26" t="s">
         <v>45</v>
@@ -2738,34 +2738,34 @@
         <v>16</v>
       </c>
       <c r="E26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G26" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H26" t="s">
         <v>10</v>
       </c>
       <c r="I26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J26" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K26" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L26" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="M26" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="N26" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
@@ -2773,87 +2773,87 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>49</v>
+        <v>408</v>
       </c>
       <c r="C27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D27" t="s">
         <v>16</v>
       </c>
       <c r="E27" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G27" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H27" t="s">
         <v>10</v>
       </c>
       <c r="I27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J27" t="s">
+        <v>178</v>
+      </c>
+      <c r="K27" t="s">
         <v>179</v>
       </c>
-      <c r="K27" t="s">
-        <v>180</v>
-      </c>
       <c r="L27" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="M27" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="N27" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>27</v>
       </c>
-      <c r="B28" s="5" t="s">
-        <v>49</v>
+      <c r="B28" t="s">
+        <v>408</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="I28" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="J28" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="J28" s="5" t="s">
+      <c r="K28" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="K28" s="5" t="s">
-        <v>227</v>
-      </c>
       <c r="L28" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="M28" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="N28" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
@@ -2861,43 +2861,43 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>49</v>
+        <v>408</v>
       </c>
       <c r="C29" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D29" t="s">
         <v>16</v>
       </c>
       <c r="E29" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G29" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H29" t="s">
         <v>10</v>
       </c>
       <c r="I29" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J29" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K29" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L29" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M29" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N29" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
@@ -2905,43 +2905,43 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>49</v>
+        <v>408</v>
       </c>
       <c r="C30" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D30" t="s">
         <v>16</v>
       </c>
       <c r="E30" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G30" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H30" t="s">
         <v>10</v>
       </c>
       <c r="I30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J30" t="s">
+        <v>164</v>
+      </c>
+      <c r="K30" t="s">
         <v>165</v>
       </c>
-      <c r="K30" t="s">
-        <v>166</v>
-      </c>
       <c r="L30" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="M30" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="N30" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
@@ -2949,43 +2949,43 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="C31" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D31" t="s">
         <v>16</v>
       </c>
       <c r="E31" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G31" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H31" t="s">
         <v>10</v>
       </c>
       <c r="I31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J31" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L31" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M31" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="N31" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
@@ -2993,43 +2993,43 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>49</v>
+        <v>408</v>
       </c>
       <c r="C32" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D32" t="s">
         <v>16</v>
       </c>
       <c r="E32" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G32" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H32" t="s">
         <v>10</v>
       </c>
       <c r="I32" t="s">
+        <v>150</v>
+      </c>
+      <c r="J32" t="s">
         <v>151</v>
       </c>
-      <c r="J32" t="s">
-        <v>152</v>
-      </c>
       <c r="K32" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L32" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="M32" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="N32" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
@@ -3037,43 +3037,43 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>49</v>
+        <v>408</v>
       </c>
       <c r="C33" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D33" t="s">
         <v>16</v>
       </c>
       <c r="E33" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G33" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H33" t="s">
         <v>10</v>
       </c>
       <c r="I33" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J33" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L33" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="M33" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="N33" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
@@ -3081,43 +3081,43 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>49</v>
+        <v>408</v>
       </c>
       <c r="C34" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D34" t="s">
         <v>16</v>
       </c>
       <c r="E34" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G34" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H34" t="s">
         <v>10</v>
       </c>
       <c r="I34" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J34" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K34" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L34" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="M34" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="N34" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
@@ -3125,43 +3125,43 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>49</v>
+        <v>408</v>
       </c>
       <c r="C35" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D35" t="s">
         <v>16</v>
       </c>
       <c r="E35" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G35" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H35" t="s">
         <v>10</v>
       </c>
       <c r="I35" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J35" t="s">
+        <v>176</v>
+      </c>
+      <c r="K35" t="s">
         <v>177</v>
       </c>
-      <c r="K35" t="s">
-        <v>178</v>
-      </c>
       <c r="L35" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="M35" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="N35" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
@@ -3169,43 +3169,43 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>49</v>
+        <v>408</v>
       </c>
       <c r="C36" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D36" t="s">
         <v>16</v>
       </c>
       <c r="E36" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G36" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H36" t="s">
         <v>10</v>
       </c>
       <c r="I36" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J36" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K36" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="L36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="M36" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="N36" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
@@ -3213,43 +3213,43 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>49</v>
+        <v>408</v>
       </c>
       <c r="C37" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D37" t="s">
         <v>16</v>
       </c>
       <c r="E37" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G37" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H37" t="s">
         <v>10</v>
       </c>
       <c r="I37" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J37" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K37" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L37" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="M37" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="N37" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
@@ -3257,43 +3257,43 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>49</v>
+        <v>408</v>
       </c>
       <c r="C38" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D38" t="s">
         <v>16</v>
       </c>
       <c r="E38" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G38" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H38" t="s">
         <v>10</v>
       </c>
       <c r="I38" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J38" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K38" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L38" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M38" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="N38" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
@@ -3301,87 +3301,87 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>49</v>
+        <v>408</v>
       </c>
       <c r="C39" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D39" t="s">
         <v>16</v>
       </c>
       <c r="E39" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G39" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H39" t="s">
         <v>10</v>
       </c>
       <c r="I39" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J39" t="s">
+        <v>174</v>
+      </c>
+      <c r="K39" t="s">
         <v>175</v>
       </c>
-      <c r="K39" t="s">
-        <v>176</v>
-      </c>
       <c r="L39" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="M39" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="N39" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="40" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="5">
         <v>39</v>
       </c>
-      <c r="B40" s="5" t="s">
-        <v>49</v>
+      <c r="B40" t="s">
+        <v>408</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H40" s="5" t="s">
         <v>10</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J40" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="K40" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="K40" s="5" t="s">
-        <v>106</v>
-      </c>
       <c r="L40" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="M40" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="N40" s="5" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
@@ -3389,43 +3389,43 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>49</v>
+        <v>408</v>
       </c>
       <c r="C41" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D41" t="s">
         <v>16</v>
       </c>
       <c r="E41" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G41" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H41" t="s">
         <v>10</v>
       </c>
       <c r="I41" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J41" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K41" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L41" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="M41" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="N41" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
@@ -3433,43 +3433,43 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>49</v>
+        <v>408</v>
       </c>
       <c r="C42" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D42" t="s">
         <v>16</v>
       </c>
       <c r="E42" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G42" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H42" t="s">
         <v>10</v>
       </c>
       <c r="I42" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J42" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K42" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L42" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="M42" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="N42" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
@@ -3477,43 +3477,43 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>49</v>
+        <v>408</v>
       </c>
       <c r="C43" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D43" t="s">
         <v>16</v>
       </c>
       <c r="E43" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G43" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H43" t="s">
         <v>10</v>
       </c>
       <c r="I43" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J43" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K43" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L43" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="M43" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="N43" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
@@ -3521,43 +3521,43 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>49</v>
+        <v>408</v>
       </c>
       <c r="C44" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D44" t="s">
         <v>16</v>
       </c>
       <c r="E44" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G44" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H44" t="s">
         <v>10</v>
       </c>
       <c r="I44" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J44" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K44" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L44" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="M44" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="N44" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
@@ -3565,43 +3565,43 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>49</v>
+        <v>408</v>
       </c>
       <c r="C45" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D45" t="s">
         <v>16</v>
       </c>
       <c r="E45" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G45" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H45" t="s">
         <v>10</v>
       </c>
       <c r="I45" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J45" t="s">
+        <v>227</v>
+      </c>
+      <c r="K45" t="s">
         <v>228</v>
       </c>
-      <c r="K45" t="s">
-        <v>229</v>
-      </c>
       <c r="L45" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="M45" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="N45" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.3">
@@ -3609,43 +3609,43 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>49</v>
+        <v>408</v>
       </c>
       <c r="C46" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D46" t="s">
         <v>16</v>
       </c>
       <c r="E46" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G46" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H46" t="s">
         <v>10</v>
       </c>
       <c r="I46" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J46" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K46" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L46" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="M46" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="N46" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.3">
@@ -3653,43 +3653,43 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>49</v>
+        <v>408</v>
       </c>
       <c r="C47" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D47" t="s">
         <v>16</v>
       </c>
       <c r="E47" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G47" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H47" t="s">
         <v>10</v>
       </c>
       <c r="I47" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J47" t="s">
+        <v>167</v>
+      </c>
+      <c r="K47" t="s">
         <v>168</v>
       </c>
-      <c r="K47" t="s">
-        <v>169</v>
-      </c>
       <c r="L47" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="M47" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="N47" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.3">
@@ -3697,43 +3697,43 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>49</v>
+        <v>408</v>
       </c>
       <c r="C48" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D48" t="s">
         <v>16</v>
       </c>
       <c r="E48" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G48" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H48" t="s">
         <v>10</v>
       </c>
       <c r="I48" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J48" t="s">
+        <v>171</v>
+      </c>
+      <c r="K48" t="s">
         <v>172</v>
       </c>
-      <c r="K48" t="s">
-        <v>173</v>
-      </c>
       <c r="L48" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="M48" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N48" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.3">
@@ -3741,43 +3741,43 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>49</v>
+        <v>408</v>
       </c>
       <c r="C49" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D49" t="s">
         <v>16</v>
       </c>
       <c r="E49" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G49" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H49" t="s">
         <v>10</v>
       </c>
       <c r="I49" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J49" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K49" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L49" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="M49" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="N49" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.3">
@@ -3785,43 +3785,43 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>49</v>
+        <v>408</v>
       </c>
       <c r="C50" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D50" t="s">
         <v>16</v>
       </c>
       <c r="E50" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G50" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H50" t="s">
         <v>10</v>
       </c>
       <c r="I50" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J50" t="s">
+        <v>155</v>
+      </c>
+      <c r="K50" t="s">
         <v>156</v>
       </c>
-      <c r="K50" t="s">
-        <v>157</v>
-      </c>
       <c r="L50" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="M50" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="N50" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.3">
@@ -3829,43 +3829,43 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>49</v>
+        <v>408</v>
       </c>
       <c r="C51" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D51" t="s">
         <v>16</v>
       </c>
       <c r="E51" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G51" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H51" t="s">
         <v>10</v>
       </c>
       <c r="I51" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J51" t="s">
+        <v>107</v>
+      </c>
+      <c r="K51" t="s">
         <v>108</v>
       </c>
-      <c r="K51" t="s">
-        <v>109</v>
-      </c>
       <c r="L51" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="M51" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="N51" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.3">
@@ -3873,43 +3873,43 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>49</v>
+        <v>408</v>
       </c>
       <c r="C52" t="s">
+        <v>386</v>
+      </c>
+      <c r="D52" t="s">
+        <v>16</v>
+      </c>
+      <c r="E52" t="s">
+        <v>149</v>
+      </c>
+      <c r="F52" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="D52" t="s">
-        <v>16</v>
-      </c>
-      <c r="E52" t="s">
-        <v>150</v>
-      </c>
-      <c r="F52" s="1" t="s">
+      <c r="G52" t="s">
         <v>388</v>
       </c>
-      <c r="G52" t="s">
-        <v>389</v>
-      </c>
       <c r="H52" t="s">
         <v>10</v>
       </c>
       <c r="I52" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J52" t="s">
+        <v>167</v>
+      </c>
+      <c r="K52" t="s">
         <v>168</v>
       </c>
-      <c r="K52" t="s">
-        <v>169</v>
-      </c>
       <c r="L52" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="M52" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N52" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.3">
@@ -3917,43 +3917,43 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>49</v>
+        <v>408</v>
       </c>
       <c r="C53" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D53" t="s">
         <v>16</v>
       </c>
       <c r="E53" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G53" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H53" t="s">
         <v>10</v>
       </c>
       <c r="I53" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J53" t="s">
+        <v>171</v>
+      </c>
+      <c r="K53" t="s">
         <v>172</v>
       </c>
-      <c r="K53" t="s">
-        <v>173</v>
-      </c>
       <c r="L53" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="M53" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N53" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.3">
@@ -3961,43 +3961,43 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>49</v>
+        <v>408</v>
       </c>
       <c r="C54" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D54" t="s">
         <v>16</v>
       </c>
       <c r="E54" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G54" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H54" t="s">
         <v>10</v>
       </c>
       <c r="I54" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J54" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K54" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L54" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="M54" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N54" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.3">
@@ -4005,43 +4005,43 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>49</v>
+        <v>408</v>
       </c>
       <c r="C55" t="s">
+        <v>395</v>
+      </c>
+      <c r="D55" t="s">
+        <v>16</v>
+      </c>
+      <c r="E55" t="s">
+        <v>147</v>
+      </c>
+      <c r="F55" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="D55" t="s">
-        <v>16</v>
-      </c>
-      <c r="E55" t="s">
-        <v>148</v>
-      </c>
-      <c r="F55" s="1" t="s">
+      <c r="G55" t="s">
         <v>397</v>
       </c>
-      <c r="G55" t="s">
-        <v>398</v>
-      </c>
       <c r="H55" t="s">
         <v>10</v>
       </c>
       <c r="I55" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J55" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K55" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L55" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="M55" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N55" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.3">
@@ -4049,43 +4049,43 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>49</v>
+        <v>408</v>
       </c>
       <c r="C56" t="s">
+        <v>398</v>
+      </c>
+      <c r="D56" t="s">
+        <v>16</v>
+      </c>
+      <c r="E56" t="s">
+        <v>145</v>
+      </c>
+      <c r="F56" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="D56" t="s">
-        <v>16</v>
-      </c>
-      <c r="E56" t="s">
-        <v>146</v>
-      </c>
-      <c r="F56" s="1" t="s">
+      <c r="G56" t="s">
         <v>400</v>
       </c>
-      <c r="G56" t="s">
-        <v>401</v>
-      </c>
       <c r="H56" t="s">
         <v>10</v>
       </c>
       <c r="I56" t="s">
+        <v>224</v>
+      </c>
+      <c r="J56" t="s">
         <v>225</v>
       </c>
-      <c r="J56" t="s">
+      <c r="K56" t="s">
         <v>226</v>
       </c>
-      <c r="K56" t="s">
-        <v>227</v>
-      </c>
       <c r="L56" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M56" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="N56" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.3">
@@ -4093,43 +4093,43 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>49</v>
+        <v>408</v>
       </c>
       <c r="C57" t="s">
+        <v>402</v>
+      </c>
+      <c r="D57" t="s">
+        <v>16</v>
+      </c>
+      <c r="E57" t="s">
+        <v>147</v>
+      </c>
+      <c r="F57" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="D57" t="s">
-        <v>16</v>
-      </c>
-      <c r="E57" t="s">
-        <v>148</v>
-      </c>
-      <c r="F57" s="1" t="s">
+      <c r="G57" t="s">
         <v>404</v>
       </c>
-      <c r="G57" t="s">
-        <v>405</v>
-      </c>
       <c r="H57" t="s">
         <v>10</v>
       </c>
       <c r="I57" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J57" t="s">
+        <v>104</v>
+      </c>
+      <c r="K57" t="s">
         <v>105</v>
       </c>
-      <c r="K57" t="s">
-        <v>106</v>
-      </c>
       <c r="L57" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="M57" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="N57" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.3">
@@ -4137,43 +4137,43 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>5</v>
+        <v>408</v>
       </c>
       <c r="C58" t="s">
+        <v>405</v>
+      </c>
+      <c r="D58" t="s">
+        <v>16</v>
+      </c>
+      <c r="E58" t="s">
+        <v>148</v>
+      </c>
+      <c r="F58" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="D58" t="s">
-        <v>16</v>
-      </c>
-      <c r="E58" t="s">
-        <v>149</v>
-      </c>
-      <c r="F58" s="1" t="s">
+      <c r="G58" t="s">
         <v>407</v>
       </c>
-      <c r="G58" t="s">
-        <v>408</v>
-      </c>
       <c r="H58" t="s">
         <v>10</v>
       </c>
       <c r="I58" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J58" t="s">
+        <v>171</v>
+      </c>
+      <c r="K58" t="s">
         <v>172</v>
       </c>
-      <c r="K58" t="s">
-        <v>173</v>
-      </c>
       <c r="L58" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="M58" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="N58" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="72" spans="14:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
